--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/DebugConnetCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/DebugConnetCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A6A8A-92D5-4863-BFCE-41C067F37C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2CACC-A96D-4C16-BFC3-8DDEE13CE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -297,6 +297,26 @@
   </si>
   <si>
     <t>是否发送eventlog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>languageType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言(CN,EN,TW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGameModeArcade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否街机模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -696,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,11 +736,11 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="13" width="19" customWidth="1"/>
+    <col min="10" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,16 +772,20 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N1"/>
-      <c r="O1"/>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -770,8 +794,9 @@
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,8 +812,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2"/>
-      <c r="O2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -797,8 +822,9 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,8 +840,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -824,8 +850,9 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -857,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>10</v>
@@ -865,8 +892,12 @@
       <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -875,8 +906,9 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -892,8 +924,8 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5"/>
-      <c r="O5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -902,8 +934,9 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -935,16 +968,20 @@
         <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N6"/>
-      <c r="O6"/>
+      <c r="O6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
@@ -953,8 +990,9 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
@@ -982,17 +1020,23 @@
       <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>21</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1014,17 +1058,23 @@
       <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>21</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1046,64 +1096,70 @@
       <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>21</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>148</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11">
-        <v>3478</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1115,101 +1171,119 @@
         <v>16</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>3478</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>3478</v>
       </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
-        <v>3478</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1221,101 +1295,119 @@
         <v>16</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>3478</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>29</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>3478</v>
       </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19">
-        <v>3478</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1327,77 +1419,133 @@
         <v>16</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>3478</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
-      <c r="K20" t="b">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>21</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
-      <c r="M20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>3478</v>
       </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/DebugConnetCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/DebugConnetCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2CACC-A96D-4C16-BFC3-8DDEE13CE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE46CFB1-2B9E-4297-8C34-DD956862E694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.10.58</t>
-  </si>
-  <si>
     <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -317,6 +314,10 @@
   </si>
   <si>
     <t>Z1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.10.50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +723,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -760,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>13</v>
@@ -772,19 +773,19 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1"/>
       <c r="Q1"/>
@@ -947,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -956,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
@@ -965,22 +966,22 @@
         <v>25</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -1011,8 +1012,8 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="H7" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="I7">
         <v>3478</v>
@@ -1038,10 +1039,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1076,10 +1077,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1087,8 +1088,8 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>31</v>
+      <c r="H9" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="I9">
         <v>3478</v>
@@ -1114,10 +1115,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1159,7 +1160,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1200,10 +1201,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1238,10 +1239,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1283,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1324,10 +1325,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1362,10 +1363,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1407,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1422,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20">
         <v>3478</v>
@@ -1448,16 +1449,16 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1486,10 +1487,10 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1498,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22">
         <v>3478</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/DebugConnetCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSettingConfig/DebugConnetCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSettingConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE46CFB1-2B9E-4297-8C34-DD956862E694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -40,8 +36,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,8 +46,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -63,317 +57,372 @@
     <t>name</t>
   </si>
   <si>
+    <t>isChgResUpdate</t>
+  </si>
+  <si>
+    <t>ResHostServerIP</t>
+  </si>
+  <si>
+    <t>ResGameVersion</t>
+  </si>
+  <si>
+    <t>isChgServer</t>
+  </si>
+  <si>
+    <t>RouterHttpHost</t>
+  </si>
+  <si>
+    <t>RouterHttpPort</t>
+  </si>
+  <si>
+    <t>areaType</t>
+  </si>
+  <si>
+    <t>languageType</t>
+  </si>
+  <si>
+    <t>IsShowDebugMode</t>
+  </si>
+  <si>
+    <t>IsShowEditorLoginMode</t>
+  </si>
+  <si>
+    <t>IsNeedSendEventLog</t>
+  </si>
+  <si>
+    <t>IsGameModeArcade</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
+    <t>这是id</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResHostServerIP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResGameVersion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RouterHttpHost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RouterHttpPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>是否修改热更新地址</t>
+  </si>
+  <si>
+    <t>资源热更新地址</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>是否修改服务器地址</t>
+  </si>
+  <si>
+    <t>服务器地址</t>
+  </si>
+  <si>
+    <t>服务器端口</t>
+  </si>
+  <si>
+    <t>区域(CN,EN,TW)</t>
+  </si>
+  <si>
+    <t>语言(CN,EN,TW)</t>
+  </si>
+  <si>
+    <t>是否显示调试关卡模式</t>
+  </si>
+  <si>
+    <t>是否显示Editor登录方式</t>
+  </si>
+  <si>
+    <t>是否发送eventlog</t>
+  </si>
+  <si>
+    <t>是否街机模式</t>
+  </si>
+  <si>
+    <t>Zpb</t>
+  </si>
+  <si>
+    <t>连接zpb</t>
+  </si>
+  <si>
+    <t>http://192.168.10.58</t>
   </si>
   <si>
     <t>v1.0</t>
   </si>
   <si>
-    <t>这是id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zpb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接zpb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>192.168.10.50</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>ZpbOnlyRes</t>
+  </si>
+  <si>
+    <t>连接zpb(仅热更)</t>
+  </si>
+  <si>
+    <t>ZpbOnlyServ</t>
+  </si>
+  <si>
+    <t>连接zpb(仅服务器)</t>
+  </si>
+  <si>
+    <t>Z1</t>
   </si>
   <si>
     <t>CN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源热更新地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接148</t>
   </si>
   <si>
     <t>http://192.168.10.148</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>192.168.10.148</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>148OnlyRes</t>
+  </si>
+  <si>
+    <t>连接148(仅热更)</t>
+  </si>
+  <si>
+    <t>148OnlyServ</t>
+  </si>
+  <si>
+    <t>连接148(仅服务器)</t>
+  </si>
+  <si>
+    <t>连接CN</t>
   </si>
   <si>
     <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.134.156.170</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.10.58</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.134.176.17</t>
+  </si>
+  <si>
+    <t>CNOnlyRes</t>
+  </si>
+  <si>
+    <t>连接CN(仅热更)</t>
+  </si>
+  <si>
+    <t>CNOnlyServ</t>
+  </si>
+  <si>
+    <t>连接CN(仅服务器)</t>
+  </si>
+  <si>
+    <t>连接EN</t>
   </si>
   <si>
     <t>https://omelette.oss-cn-beijing.aliyuncs.com/dev/DeepMirrorARGame_EN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>34.225.211.137</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接148</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接CN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接EN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域(CN,EN,TW)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZpbOnlyRes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZpbOnlyServ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>148OnlyRes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>148OnlyServ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接zpb(仅热更)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接zpb(仅服务器)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接148(仅热更)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接148(仅服务器)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNOnlyRes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNOnlyServ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接CN(仅热更)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接CN(仅服务器)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENOnlyRes</t>
+  </si>
+  <si>
+    <t>连接EN(仅热更)</t>
   </si>
   <si>
     <t>ENOnlyServ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENOnlyRes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接EN(仅热更)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>连接EN(仅服务器)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否修改服务器地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isChgServer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否修改热更新地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isChgResUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowDebugMode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示调试关卡模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示Editor登录方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowEditorLoginMode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsNeedSendEventLog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发送eventlog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>languageType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言(CN,EN,TW)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsGameModeArcade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否街机模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.10.50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,8 +441,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -416,44 +639,322 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -711,37 +1212,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.78095238095238" customWidth="1"/>
+    <col min="2" max="2" width="19.1047619047619" customWidth="1"/>
+    <col min="3" max="3" width="19.4380952380952" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="11" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.4380952380952" customWidth="1"/>
+    <col min="9" max="9" width="15.2190476190476" customWidth="1"/>
+    <col min="10" max="11" width="19.1047619047619" customWidth="1"/>
     <col min="12" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,40 +1254,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="P1"/>
       <c r="Q1"/>
@@ -797,7 +1299,7 @@
       <c r="W1"/>
       <c r="X1"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -825,7 +1327,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,51 +1355,51 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:24">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -909,9 +1411,9 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:24">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -937,51 +1439,51 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" spans="1:24">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -993,36 +1495,36 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>18</v>
+    <row r="7" spans="2:15">
+      <c r="B7" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>68</v>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I7">
         <v>3478</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1030,37 +1532,37 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="N7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1068,19 +1570,19 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
+      <c r="N8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1088,17 +1590,17 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>68</v>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I9">
         <v>3478</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1106,37 +1608,37 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>41</v>
+      <c r="N9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1144,47 +1646,47 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="9.6" customHeight="1" spans="2:3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="8">
         <v>148</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>3478</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1192,37 +1694,37 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
+      <c r="N12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1230,19 +1732,19 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>44</v>
+      <c r="N13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1251,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I14">
         <v>3478</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1268,47 +1770,47 @@
       <c r="M14" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
+      <c r="N14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="9" customHeight="1" spans="2:3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I16">
         <v>3478</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1316,37 +1818,37 @@
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
+      <c r="N16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1354,19 +1856,19 @@
       <c r="M17" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
+      <c r="N17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1375,16 +1877,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I18">
         <v>3478</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1392,47 +1894,47 @@
       <c r="M18" t="b">
         <v>1</v>
       </c>
-      <c r="N18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
+      <c r="N18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="4.8" customHeight="1" spans="2:3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I20">
         <v>3478</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1440,37 +1942,37 @@
       <c r="M20" t="b">
         <v>1</v>
       </c>
-      <c r="N20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
+      <c r="N20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -1478,19 +1980,19 @@
       <c r="M21" t="b">
         <v>1</v>
       </c>
-      <c r="N21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
+      <c r="N21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1499,16 +2001,16 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I22">
         <v>3478</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1516,41 +2018,45 @@
       <c r="M22" t="b">
         <v>1</v>
       </c>
-      <c r="N22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="8"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2">
       <c r="B30" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" display="8.134.176.17" tooltip="http://8.134.176.17/"/>
+    <hyperlink ref="H18" r:id="rId1" display="8.134.176.17" tooltip="http://8.134.176.17/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>